--- a/biology/Médecine/Phase_folliculaire/Phase_folliculaire.xlsx
+++ b/biology/Médecine/Phase_folliculaire/Phase_folliculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La phase folliculaire ou phase folliculinique constitue la première partie du cycle hormonal féminin qui commence généralement le premier jour des menstruations et qui se termine au moment de l'ovulation[1]. Elle s'oppose à la phase lutéale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phase folliculaire ou phase folliculinique constitue la première partie du cycle hormonal féminin qui commence généralement le premier jour des menstruations et qui se termine au moment de l'ovulation. Elle s'oppose à la phase lutéale.
 C'est au cours de cette phase que les follicules contenus dans les ovaires se développent (le follicule tertiaire va devenir un follicule mûr sous l'action de la FSH hypophysaire sous le contrôle de la GnRH hypothalamique).
 </t>
         </is>
